--- a/data/trans_dic/P1410-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1410-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03002072433191623</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.04922599129911716</v>
+        <v>0.04922599129911717</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01647513974669612</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02969857268909026</v>
+        <v>0.02696220006153653</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01532894171828505</v>
+        <v>0.01557142002002862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01432576133084145</v>
+        <v>0.01429913020512002</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03084997429068638</v>
+        <v>0.03238272742282343</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004007424674609041</v>
+        <v>0.004023190493119546</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0221125805570081</v>
+        <v>0.02528320642509789</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01960178565547766</v>
+        <v>0.02106086290984447</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01761271905977544</v>
+        <v>0.01789161967131154</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02094053476536944</v>
+        <v>0.0207380015701262</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0236307214079385</v>
+        <v>0.02351713333214813</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02159296973334962</v>
+        <v>0.02149959600780125</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02861589975955332</v>
+        <v>0.02922458468854414</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07805847667319757</v>
+        <v>0.0787115000414331</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05983313790068479</v>
+        <v>0.05971241775576804</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05661531223349417</v>
+        <v>0.05768133786228875</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0762653829134006</v>
+        <v>0.07603126316211727</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04103348470852231</v>
+        <v>0.03766097752367257</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07428187107270588</v>
+        <v>0.07761852020914843</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07171165563374921</v>
+        <v>0.06935295580093086</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04837487119611143</v>
+        <v>0.05021765720775708</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05091299428594755</v>
+        <v>0.04927927892581642</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0566284223546807</v>
+        <v>0.05604672922270421</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05389543449372376</v>
+        <v>0.05395370647706781</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05323567614687869</v>
+        <v>0.05419147426157749</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.04852399377336119</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04317234238860699</v>
+        <v>0.043172342388607</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05965937710188537</v>
@@ -833,7 +833,7 @@
         <v>0.04470198012848951</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04853736682910388</v>
+        <v>0.04853736682910389</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04373012917911921</v>
+        <v>0.04311563037718139</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01899070941844486</v>
+        <v>0.0185588349649018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02661046531002823</v>
+        <v>0.0262634248013837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03605576999935948</v>
+        <v>0.03608816743569092</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03848390231682801</v>
+        <v>0.0389839706705482</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02766604492266639</v>
+        <v>0.02797679582094072</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03087164705866693</v>
+        <v>0.03085133850473098</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02999337561140076</v>
+        <v>0.03110479967738188</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04628022371063652</v>
+        <v>0.04640476053472969</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02628363164363369</v>
+        <v>0.02682001858818924</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03274855366533239</v>
+        <v>0.03207948557612397</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03749484125539825</v>
+        <v>0.03715066882922184</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09050829048395624</v>
+        <v>0.09019326596382317</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05232378619515594</v>
+        <v>0.05243024263973714</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06179131796375114</v>
+        <v>0.06218772414638608</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07598500451617664</v>
+        <v>0.0764264651650042</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07862530608972298</v>
+        <v>0.07911444907789242</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0646716241243738</v>
+        <v>0.06413758635977936</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07136283797259556</v>
+        <v>0.07077762574214261</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05869002212796701</v>
+        <v>0.05944975232839789</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07792881929125167</v>
+        <v>0.07636255203167794</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0501900390998265</v>
+        <v>0.05058368257087607</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05789664237069129</v>
+        <v>0.05860052167219795</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06168714458665921</v>
+        <v>0.06210574923895246</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.02464014182194343</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06448983556610159</v>
+        <v>0.06448983556610161</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03822173609162301</v>
@@ -969,7 +969,7 @@
         <v>0.03804214307267723</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06274584855442412</v>
+        <v>0.06274584855442411</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02362800473343782</v>
+        <v>0.02294411497805933</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02847889228729994</v>
+        <v>0.02905783681322864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03121271838167721</v>
+        <v>0.03068548442416023</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04028298431117369</v>
+        <v>0.04214628155934558</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01848102212243275</v>
+        <v>0.01841738979425827</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03763768518731848</v>
+        <v>0.03726043921014521</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009481345761111547</v>
+        <v>0.009943575983059897</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04538429719142351</v>
+        <v>0.04954563522332585</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02479206792915677</v>
+        <v>0.02486633890260481</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03824581706619336</v>
+        <v>0.0382504023041112</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02334743212088477</v>
+        <v>0.02437493623860852</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04857514226143771</v>
+        <v>0.04965493386681917</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06942933028927353</v>
+        <v>0.06875366954432734</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08224915509941273</v>
+        <v>0.08251965959732822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07680892916109705</v>
+        <v>0.081552163962115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08550603400573745</v>
+        <v>0.08866452107851051</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05876547153882357</v>
+        <v>0.05994328380524538</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09385476693706382</v>
+        <v>0.08556764309206578</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05067960198949823</v>
+        <v>0.04996476384436158</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08554779349530488</v>
+        <v>0.08548183904545992</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05555597370550694</v>
+        <v>0.05480268716943969</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07396148302135302</v>
+        <v>0.07439885690624831</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05476298811148578</v>
+        <v>0.05507893915196203</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07698831240237333</v>
+        <v>0.07772763683170204</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01919345700602326</v>
+        <v>0.01730210642158212</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03671367293190535</v>
+        <v>0.03878484876687157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02273690350930389</v>
+        <v>0.02339873567192076</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03765895853926042</v>
+        <v>0.03847398879892928</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008915892116556507</v>
+        <v>0.01053388906331449</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02855865397413048</v>
+        <v>0.02916388612960612</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06136914528925538</v>
+        <v>0.06445745796326617</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02737860423831974</v>
+        <v>0.02708338578390933</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01533261784207948</v>
+        <v>0.01738109555631715</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03771053265058946</v>
+        <v>0.0374434526133109</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04819185821586426</v>
+        <v>0.04845640240134627</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03578649892505718</v>
+        <v>0.0356066299877907</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05353770954820646</v>
+        <v>0.05243896568441028</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08538834123308646</v>
+        <v>0.08963938131627586</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06187921635543905</v>
+        <v>0.06379067192169303</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08024405310726661</v>
+        <v>0.08045566917512137</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04074157414031081</v>
+        <v>0.04298425925373107</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0727577447923731</v>
+        <v>0.07412810812409877</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1252100252104953</v>
+        <v>0.1251742140605411</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06763854164103526</v>
+        <v>0.06584769301205283</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03949090489943394</v>
+        <v>0.03962761716576332</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07108125744456806</v>
+        <v>0.0715222453914435</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08630787944913858</v>
+        <v>0.08768065153079074</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06405016337872428</v>
+        <v>0.06601416138846901</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02479403346337447</v>
+        <v>0.02579960922478382</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01203316295272824</v>
+        <v>0.0109808996902927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007667268720801624</v>
+        <v>0.007683558690859256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01830882516365441</v>
+        <v>0.01809307057338392</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01461638565256582</v>
+        <v>0.01546338169195995</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02863645077797062</v>
+        <v>0.02446170471622594</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.005587657279485687</v>
+        <v>0.005031974593373538</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01964503274969365</v>
+        <v>0.02087400905239644</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02510026040936289</v>
+        <v>0.0260359651380875</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02590453021780467</v>
+        <v>0.02478327765485861</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01005053199948486</v>
+        <v>0.009332010408944182</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02192307818192088</v>
+        <v>0.02278512535769101</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08812530239739298</v>
+        <v>0.08514973129060512</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06636538350212533</v>
+        <v>0.06231275487495323</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04654022473964972</v>
+        <v>0.04351280273577162</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05418004645754147</v>
+        <v>0.05772675138739142</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06895441457439132</v>
+        <v>0.07151703394319643</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09254607268947693</v>
+        <v>0.086091290452883</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04768709387652115</v>
+        <v>0.04694791417296284</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05035103777605791</v>
+        <v>0.05013294029822472</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06822637430638563</v>
+        <v>0.06681034197491248</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06341445645226336</v>
+        <v>0.06489672732397316</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03625501881584642</v>
+        <v>0.03664969850916618</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04651048800774564</v>
+        <v>0.04580730982742696</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.02467119514467877</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.07589225519452704</v>
+        <v>0.07589225519452703</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.01998663889966375</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02826951869744852</v>
+        <v>0.02775961143874557</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.026497953721643</v>
+        <v>0.02683737018195622</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01018167399055886</v>
+        <v>0.009917210256226076</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05397444257956855</v>
+        <v>0.0545745760982685</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.007847544433852004</v>
+        <v>0.00760765747654534</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04047828878443811</v>
+        <v>0.04059036113019366</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03035017921057251</v>
+        <v>0.03203259135768676</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04500215893485308</v>
+        <v>0.04726645048368401</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0216417671059538</v>
+        <v>0.02170276918464202</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04206040836429178</v>
+        <v>0.039762278143939</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02544008100671612</v>
+        <v>0.02371964060361785</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05583851980988967</v>
+        <v>0.05555306092870314</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07910240799631527</v>
+        <v>0.08197254805582896</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07916907834428299</v>
+        <v>0.08124888314580286</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05383508038381774</v>
+        <v>0.05517574366591863</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1029844051182394</v>
+        <v>0.1045085292705909</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04434049567593071</v>
+        <v>0.04408366469474933</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0991595697019893</v>
+        <v>0.1020463316849254</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.08820355923527301</v>
+        <v>0.09363668803992094</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08510316224223058</v>
+        <v>0.08722042230399132</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05398751112993081</v>
+        <v>0.05242802958995019</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08205376452530339</v>
+        <v>0.08088931626994438</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.06006731848884122</v>
+        <v>0.06276381233729535</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08681836092329295</v>
+        <v>0.08628414503952611</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02047408827393263</v>
+        <v>0.02058641481905663</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02977777795146017</v>
+        <v>0.03096743078370028</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02118315901066231</v>
+        <v>0.02185754172863882</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04793937988786953</v>
+        <v>0.04777660247090541</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02669414816432425</v>
+        <v>0.02761783513162142</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01689579839112972</v>
+        <v>0.0177678619119199</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02568773193101192</v>
+        <v>0.02635004039134639</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04126363591442166</v>
+        <v>0.04002965044494514</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02776366137904008</v>
+        <v>0.02723436231864549</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02707559404670519</v>
+        <v>0.02732181827331862</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02734672881679101</v>
+        <v>0.0267575411692461</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04936700542307309</v>
+        <v>0.04808839092633527</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04850676183316453</v>
+        <v>0.04857810252944976</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06380240354283319</v>
+        <v>0.06373690618859879</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05220048157944702</v>
+        <v>0.05218269601483306</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08711350948495981</v>
+        <v>0.08836166476176562</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05871589302387245</v>
+        <v>0.05877477677551726</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04302437909517089</v>
+        <v>0.04418877764631827</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05834181548231496</v>
+        <v>0.05714180864829966</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06799820302764593</v>
+        <v>0.06978870932321263</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04837126543036846</v>
+        <v>0.04898740637098677</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04881519205461908</v>
+        <v>0.04769989425483198</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.0492043274715185</v>
+        <v>0.04823016586962933</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07285792762152213</v>
+        <v>0.07171913467724376</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.04155560082312627</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.03430271337832747</v>
+        <v>0.03430271337832748</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03724540432652617</v>
+        <v>0.03649930907425284</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01368380040402628</v>
+        <v>0.01405321945416932</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03028425838110942</v>
+        <v>0.03255611992285036</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03041862408849017</v>
+        <v>0.02944426905131401</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02950968182124935</v>
+        <v>0.0282092044912522</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02002237855634454</v>
+        <v>0.0214959496954368</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02670327059584995</v>
+        <v>0.02696729718938333</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02028907007545477</v>
+        <v>0.02099931392603716</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0367064998338916</v>
+        <v>0.03683968337791903</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02021756279767332</v>
+        <v>0.0196637224774739</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03112015359901725</v>
+        <v>0.03242953682062132</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02789451412964064</v>
+        <v>0.02688864237406911</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06790186769963483</v>
+        <v>0.06831019167192066</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03653583377984874</v>
+        <v>0.03542615008147527</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06065813440621304</v>
+        <v>0.06378976981955159</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05577922363046873</v>
+        <v>0.05389822446599298</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06124969077749023</v>
+        <v>0.05934675073002942</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04565363695398202</v>
+        <v>0.04620887359423791</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05443230673571708</v>
+        <v>0.05495953038905663</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03945275034253994</v>
+        <v>0.03872717101787918</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05830215016512158</v>
+        <v>0.05743996552631055</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.03709956844263618</v>
+        <v>0.03737188313614061</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.05209968447879056</v>
+        <v>0.05303812778731031</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04325165465097155</v>
+        <v>0.04181376842755953</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.03757930392139987</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.05410503543048416</v>
+        <v>0.05410503543048414</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.03749427037481552</v>
@@ -1785,7 +1785,7 @@
         <v>0.04137330976841951</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.048764213079194</v>
+        <v>0.04876421307919401</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03900027898647941</v>
+        <v>0.03894281461263312</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03229926944250913</v>
+        <v>0.03268903234787433</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03089336057258889</v>
+        <v>0.03176631023465</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.04741618525527302</v>
+        <v>0.04711764813906169</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.03150103171217517</v>
+        <v>0.03129663667719019</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.03536255506807281</v>
+        <v>0.03536719525182312</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.03770325815068848</v>
+        <v>0.03830071900844918</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.03904907007757224</v>
+        <v>0.03856094985357014</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03657946033317552</v>
+        <v>0.0365154633036894</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.03567362293135719</v>
+        <v>0.03576772445043486</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.03659295757652977</v>
+        <v>0.03635389394962036</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.04457084396881287</v>
+        <v>0.04448581522979106</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05352067719743866</v>
+        <v>0.05355845896557711</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04639888393738963</v>
+        <v>0.04577139515693036</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04394030794799772</v>
+        <v>0.04463377889262642</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.06235354359166959</v>
+        <v>0.06166053660621145</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.044853782547829</v>
+        <v>0.04500453011085189</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.0482577176488562</v>
+        <v>0.04907084107366125</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.05226565948280988</v>
+        <v>0.05318422671458131</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.05010991922348631</v>
+        <v>0.04940168977955887</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04659699817191171</v>
+        <v>0.046303080971237</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.04501323437503094</v>
+        <v>0.04549333223087636</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.04641976603389505</v>
+        <v>0.04636137467478451</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.05344702660870623</v>
+        <v>0.05380932543341041</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8108</v>
+        <v>7361</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4518</v>
+        <v>4589</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4208</v>
+        <v>4201</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9836</v>
+        <v>10325</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6352</v>
+        <v>7262</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5659</v>
+        <v>6080</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5567</v>
+        <v>5655</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11179</v>
+        <v>11071</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>13753</v>
+        <v>13687</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>12577</v>
+        <v>12523</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>18168</v>
+        <v>18555</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21311</v>
+        <v>21489</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17635</v>
+        <v>17600</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16631</v>
+        <v>16945</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>24317</v>
+        <v>24242</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10703</v>
+        <v>9823</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21337</v>
+        <v>22296</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20703</v>
+        <v>20022</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15289</v>
+        <v>15872</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>27180</v>
+        <v>26308</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>32957</v>
+        <v>32618</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>31392</v>
+        <v>31426</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>33800</v>
+        <v>34406</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21562</v>
+        <v>21259</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9600</v>
+        <v>9382</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13374</v>
+        <v>13199</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19048</v>
+        <v>19065</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19394</v>
+        <v>19646</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14491</v>
+        <v>14653</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16148</v>
+        <v>16138</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16353</v>
+        <v>16958</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>46142</v>
+        <v>46267</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>27054</v>
+        <v>27606</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>33589</v>
+        <v>32903</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>40250</v>
+        <v>39881</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>44627</v>
+        <v>44472</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26451</v>
+        <v>26505</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31055</v>
+        <v>31254</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>40141</v>
+        <v>40374</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39623</v>
+        <v>39870</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>33873</v>
+        <v>33593</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>37329</v>
+        <v>37023</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>31998</v>
+        <v>32412</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>77697</v>
+        <v>76135</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>51660</v>
+        <v>52065</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>59382</v>
+        <v>60104</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>66220</v>
+        <v>66669</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7534</v>
+        <v>7316</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9228</v>
+        <v>9416</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9943</v>
+        <v>9775</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12729</v>
+        <v>13318</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6199</v>
+        <v>6177</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12835</v>
+        <v>12707</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3189</v>
+        <v>3344</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16174</v>
+        <v>17657</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>16220</v>
+        <v>16269</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>25436</v>
+        <v>25439</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>15290</v>
+        <v>15963</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>32661</v>
+        <v>33387</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22137</v>
+        <v>21922</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26653</v>
+        <v>26740</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24469</v>
+        <v>25980</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27019</v>
+        <v>28017</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19711</v>
+        <v>20106</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>32006</v>
+        <v>29180</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17044</v>
+        <v>16804</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30488</v>
+        <v>30464</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>36348</v>
+        <v>35855</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>49189</v>
+        <v>49480</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>35863</v>
+        <v>36070</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>51765</v>
+        <v>52262</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6884</v>
+        <v>6206</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13730</v>
+        <v>14505</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8412</v>
+        <v>8657</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14052</v>
+        <v>14356</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3312</v>
+        <v>3913</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11108</v>
+        <v>11343</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23767</v>
+        <v>24963</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>11553</v>
+        <v>11428</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11195</v>
+        <v>12690</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>28771</v>
+        <v>28567</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>36493</v>
+        <v>36693</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>28454</v>
+        <v>28311</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19202</v>
+        <v>18808</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>31934</v>
+        <v>33524</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22893</v>
+        <v>23600</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29943</v>
+        <v>30022</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15134</v>
+        <v>15967</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>28299</v>
+        <v>28832</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>48492</v>
+        <v>48478</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>28541</v>
+        <v>27785</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28833</v>
+        <v>28933</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>54230</v>
+        <v>54567</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>65356</v>
+        <v>66396</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>50927</v>
+        <v>52488</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5041</v>
+        <v>5245</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2558</v>
+        <v>2335</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3765</v>
+        <v>3721</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3035</v>
+        <v>3211</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6288</v>
+        <v>5372</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1221</v>
+        <v>1100</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4448</v>
+        <v>4726</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>10316</v>
+        <v>10700</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>11196</v>
+        <v>10712</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4320</v>
+        <v>4011</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>9473</v>
+        <v>9845</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>17917</v>
+        <v>17312</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14110</v>
+        <v>13249</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9830</v>
+        <v>9191</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11143</v>
+        <v>11872</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>14320</v>
+        <v>14852</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>20322</v>
+        <v>18905</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>10424</v>
+        <v>10262</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>11401</v>
+        <v>11351</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>28039</v>
+        <v>27457</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>27408</v>
+        <v>28049</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>15583</v>
+        <v>15752</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>20097</v>
+        <v>19793</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7656</v>
+        <v>7518</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7260</v>
+        <v>7353</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2679</v>
+        <v>2609</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>14611</v>
+        <v>14774</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2183</v>
+        <v>2116</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>11257</v>
+        <v>11288</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>8289</v>
+        <v>8749</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>11840</v>
+        <v>12436</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>11880</v>
+        <v>11914</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>23221</v>
+        <v>21952</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>13642</v>
+        <v>12719</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>29807</v>
+        <v>29655</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21422</v>
+        <v>22199</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21691</v>
+        <v>22261</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14165</v>
+        <v>14518</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>27879</v>
+        <v>28291</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>12333</v>
+        <v>12262</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>27576</v>
+        <v>28379</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>24090</v>
+        <v>25574</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>22391</v>
+        <v>22948</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>29637</v>
+        <v>28781</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>45300</v>
+        <v>44657</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>32210</v>
+        <v>33656</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>46344</v>
+        <v>46059</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>12592</v>
+        <v>12661</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>19736</v>
+        <v>20525</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>13908</v>
+        <v>14351</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>34460</v>
+        <v>34343</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>17037</v>
+        <v>17626</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>11723</v>
+        <v>12328</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>17758</v>
+        <v>18216</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>31774</v>
+        <v>30823</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>34795</v>
+        <v>34131</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>36732</v>
+        <v>37066</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>36859</v>
+        <v>36065</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>73499</v>
+        <v>71596</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>29833</v>
+        <v>29877</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>42287</v>
+        <v>42244</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>34273</v>
+        <v>34261</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>62619</v>
+        <v>63516</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>37474</v>
+        <v>37511</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>29853</v>
+        <v>30661</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>40331</v>
+        <v>39502</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>52360</v>
+        <v>53738</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>60621</v>
+        <v>61393</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>66225</v>
+        <v>64712</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>66320</v>
+        <v>65007</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>108473</v>
+        <v>106778</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>27703</v>
+        <v>27148</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>10661</v>
+        <v>10949</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>23579</v>
+        <v>25348</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>24276</v>
+        <v>23499</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>23121</v>
+        <v>22102</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>16446</v>
+        <v>17657</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>22061</v>
+        <v>22279</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>16852</v>
+        <v>17442</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>56062</v>
+        <v>56265</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>32358</v>
+        <v>31472</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>49940</v>
+        <v>52041</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>45431</v>
+        <v>43793</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>50505</v>
+        <v>50809</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>28465</v>
+        <v>27600</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>47227</v>
+        <v>49666</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>44516</v>
+        <v>43015</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>47990</v>
+        <v>46499</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>37500</v>
+        <v>37956</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>44970</v>
+        <v>45406</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>32770</v>
+        <v>32167</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>89045</v>
+        <v>87728</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>59378</v>
+        <v>59813</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>83607</v>
+        <v>85113</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>70443</v>
+        <v>68101</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>127786</v>
+        <v>127598</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>110682</v>
+        <v>112018</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>104863</v>
+        <v>107826</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>167357</v>
+        <v>166303</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>106448</v>
+        <v>105758</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>125676</v>
+        <v>125692</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>133641</v>
+        <v>135759</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>145643</v>
+        <v>143823</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>243463</v>
+        <v>243037</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>249027</v>
+        <v>249684</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>253915</v>
+        <v>252256</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>323552</v>
+        <v>322935</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>175363</v>
+        <v>175487</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>158999</v>
+        <v>156848</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>149149</v>
+        <v>151503</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>220078</v>
+        <v>217632</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>151570</v>
+        <v>152079</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>171504</v>
+        <v>174394</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>185258</v>
+        <v>188514</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>186898</v>
+        <v>184256</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>310138</v>
+        <v>308181</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>314224</v>
+        <v>317575</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>322102</v>
+        <v>321697</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>387987</v>
+        <v>390617</v>
       </c>
     </row>
     <row r="40">
